--- a/data/Johnson litigation research.xlsx
+++ b/data/Johnson litigation research.xlsx
@@ -29,10 +29,10 @@
     <t xml:space="preserve">Involved</t>
   </si>
   <si>
-    <t xml:space="preserve">Related Manager</t>
+    <t xml:space="preserve">Potential Suspect</t>
   </si>
   <si>
-    <t xml:space="preserve">Potential Suspect</t>
+    <t xml:space="preserve">Related Manager</t>
   </si>
 </sst>
 </file>
@@ -399,10 +399,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6338</v>
+        <v>33066</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>39193</v>
+        <v>43149</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -411,10 +411,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15165</v>
+        <v>41678</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>39248</v>
+        <v>43168</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -423,22 +423,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>41452</v>
+        <v>25653</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>39128</v>
+        <v>43282</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>12024</v>
+        <v>30041</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>39282</v>
+        <v>43269</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -447,10 +447,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6594</v>
+        <v>27548</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>39176</v>
+        <v>43121</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -459,34 +459,34 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3873</v>
+        <v>5121</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>39143</v>
+        <v>43278</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>10873</v>
+        <v>28603</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>39135</v>
+        <v>43133</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>21077</v>
+        <v>31561</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>39228</v>
+        <v>43224</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -495,10 +495,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>17863</v>
+        <v>37883</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>39159</v>
+        <v>43164</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -507,22 +507,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>19523</v>
+        <v>37388</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>39224</v>
+        <v>43247</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>43310</v>
+        <v>12564</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>39242</v>
+        <v>43180</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -531,10 +531,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7493</v>
+        <v>29981</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>39261</v>
+        <v>43141</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -543,10 +543,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>39392</v>
+        <v>4526</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>39264</v>
+        <v>43149</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -555,22 +555,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>35773</v>
+        <v>44675</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>39282</v>
+        <v>43227</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>434</v>
+        <v>30754</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>39242</v>
+        <v>43267</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -579,22 +579,22 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>30507</v>
+        <v>42878</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>39270</v>
+        <v>43231</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16360</v>
+        <v>27945</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>39215</v>
+        <v>43158</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -603,10 +603,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>39150</v>
+        <v>21747</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>39226</v>
+        <v>43070</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -615,10 +615,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3580</v>
+        <v>25226</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>39203</v>
+        <v>43173</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -627,22 +627,22 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1932</v>
+        <v>7187</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>39121</v>
+        <v>43184</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>30833</v>
+        <v>39719</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>39233</v>
+        <v>43173</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -651,22 +651,22 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3872</v>
+        <v>40039</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>39114</v>
+        <v>43108</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>30296</v>
+        <v>28006</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>39157</v>
+        <v>43119</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -675,10 +675,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>21650</v>
+        <v>1244</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>39179</v>
+        <v>43285</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -687,10 +687,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6773</v>
+        <v>44161</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>39261</v>
+        <v>43185</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
